--- a/public_html/archivos/2012_1060_OFERTA_ACADEMICA.xlsx
+++ b/public_html/archivos/2012_1060_OFERTA_ACADEMICA.xlsx
@@ -13,38 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POSTGRADO!$A$4:$O$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$L$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$K$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Flor María Ramón</author>
-  </authors>
-  <commentList>
-    <comment ref="L5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En caso que la carrera se encuentre vigente para el segundo ciclo del 2013 seleccione "RATIFICADO" caso contrario"NO VIGENTE HABILITADO". Realizar este proceso solo para las carreras de Estado "VIGENTE" (columna k)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="147">
   <si>
     <t>CÓDIGO IES</t>
   </si>
@@ -86,9 +62,6 @@
   </si>
   <si>
     <t>SECRETARÍA NACIONAL DE EDUCACIÓN SUPERIOR, CIENCIA, TECNOLOGÍA E INNOVACIÓN</t>
-  </si>
-  <si>
-    <t>RATIFICAR EL ESTADO DE LA CARRERA PARA EL SEGUNDO CICLO DEL 2013 (PRÓXIMO EXAMEN SNNA)</t>
   </si>
   <si>
     <t>NO VIGENTE HABILITADO</t>
@@ -494,7 +467,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,12 +482,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -734,15 +701,15 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,8 +802,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1325,11 +1292,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,53 +1305,50 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="7" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="N2" s="6" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,29 +1382,26 @@
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1448,384 +1409,384 @@
         <v>12</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="D7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="E16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="K16" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="G17" s="11" t="s">
         <v>11</v>
       </c>
@@ -1833,34 +1794,34 @@
         <v>12</v>
       </c>
       <c r="I17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="K17" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="E18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="G18" s="8" t="s">
         <v>11</v>
       </c>
@@ -1868,34 +1829,34 @@
         <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="K18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="G19" s="11" t="s">
         <v>11</v>
       </c>
@@ -1903,34 +1864,34 @@
         <v>12</v>
       </c>
       <c r="I19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="K19" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="G20" s="8" t="s">
         <v>11</v>
       </c>
@@ -1938,139 +1899,139 @@
         <v>12</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="K20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="G21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="K21" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="K22" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="K23" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="G24" s="8" t="s">
         <v>11</v>
       </c>
@@ -2078,33 +2039,33 @@
         <v>12</v>
       </c>
       <c r="I24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="K24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>11</v>
@@ -2113,33 +2074,33 @@
         <v>12</v>
       </c>
       <c r="I25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="K25" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>11</v>
@@ -2148,33 +2109,33 @@
         <v>12</v>
       </c>
       <c r="I26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="K26" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>11</v>
@@ -2183,68 +2144,68 @@
         <v>12</v>
       </c>
       <c r="I27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="K27" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K28" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>11</v>
@@ -2253,34 +2214,34 @@
         <v>12</v>
       </c>
       <c r="I29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="K29" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="E30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G30" s="8" t="s">
         <v>11</v>
       </c>
@@ -2288,67 +2249,67 @@
         <v>12</v>
       </c>
       <c r="I30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="K30" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="E32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="G32" s="8" t="s">
         <v>11</v>
       </c>
@@ -2356,34 +2317,34 @@
         <v>12</v>
       </c>
       <c r="I32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="K32" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="G33" s="11" t="s">
         <v>11</v>
       </c>
@@ -2391,33 +2352,33 @@
         <v>12</v>
       </c>
       <c r="I33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="K33" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="E34" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>11</v>
@@ -2426,34 +2387,34 @@
         <v>12</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="K34" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="E35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="G35" s="11" t="s">
         <v>11</v>
       </c>
@@ -2461,69 +2422,69 @@
         <v>12</v>
       </c>
       <c r="I35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="K35" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="G36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="K36" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="E37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="G37" s="11" t="s">
         <v>11</v>
       </c>
@@ -2531,33 +2492,33 @@
         <v>12</v>
       </c>
       <c r="I37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="K37" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="E38" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>11</v>
@@ -2566,33 +2527,33 @@
         <v>12</v>
       </c>
       <c r="I38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="K38" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="E39" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>11</v>
@@ -2601,104 +2562,104 @@
         <v>12</v>
       </c>
       <c r="I39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="K39" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="K40" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="E41" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="G41" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="K41" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="E42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G42" s="8" t="s">
         <v>11</v>
       </c>
@@ -2706,32 +2667,32 @@
         <v>12</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="E43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="G43" s="11" t="s">
         <v>11</v>
       </c>
@@ -2739,244 +2700,240 @@
         <v>12</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="K44" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="E45" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="F45" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="G45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="K45" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="K46" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I47" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="K47" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="E48" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J48" s="8" t="s">
+      <c r="K48" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="19" t="s">
+      <c r="D49" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J49" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K49" s="20" t="s">
-        <v>26</v>
+      <c r="G49" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A5:L49"/>
+  <autoFilter ref="A5:K49"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2 L5">
-      <formula1>$N$1:$N$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="Solo acepta &quot;RATIFICADO&quot; o &quot;NO VIGENTE HABILITADO&quot;" sqref="L6:L49">
-      <formula1>$N$1:$N$2</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2">
+      <formula1>$M$1:$M$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3003,36 +2960,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="A2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3043,10 +3000,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -3064,60 +3021,60 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -3125,40 +3082,40 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -3166,40 +3123,40 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>147</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
